--- a/Excel to PDF/excel_files/N23070405_D3.03_C-037.xlsx
+++ b/Excel to PDF/excel_files/N23070405_D3.03_C-037.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaisw\NPL\26-06 work\form\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaisw\NPL\27-06 work\form\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F5CE3E-3F18-44B6-8D19-65A462E5B4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD51AB79-DF83-4D0F-8AE7-A414C82A3D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,6 @@
 Make: Fluke Biomedical</t>
   </si>
   <si>
-    <t>Temperature: (25 ± 2) ℃
-Relative Humidity: (50 ± 10)%</t>
-  </si>
-  <si>
     <t>tracability</t>
   </si>
   <si>
@@ -193,13 +189,39 @@
 (ii) NPL identification No. of the Spectrometer for wavelength measurement is 402/0PT/202</t>
   </si>
   <si>
-    <t>1. Digital Storage Oscilloscope (Model No.: TBS 2072; Sr. No.: C020293; Make: Tektronix); 
-(-182.8 to -582.4) mV ±1.5 mV (k=2.32) ; 
+    <t>Temperature: (25 ± 2) ℃
+Relative Humidity: (50 ± 10) %</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Digital Storage Oscilloscope (Model No.: TBS 2072; Sr. No.: C020293; Make: Tektronix); 
+(-182.8 to -582.4) mV ± 1.5 mV (k=2.32) ; 
 (215.8 to 2207) mV ± (1.5 to 2.0) mV (k=2.02 to 2.32); 
-Time (sec): (19.994 ±1 * 10^-3) µs (k=2)
+Time (sec): (19.994 ± 1 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) µs (k=2)
 2. High Voltage Divider (Model No.: VD 15-8.3-A-LB-AL;
 Sr. No.: 170313, Make: Ross Engg. Corp.),
-(1000:1) 0.9975 ± 0.1% (k=2.1)
+(1000:1) 0.9975 ± 0.1 % (k=2.1)
 3. Digital Multimeter (Model No. 8846A; Sr.No.: 3641001; Make: Fluke);
 (19.0009 ± 0.0003) Ω (k=2)
 4. Defibrillator (Model No.: TEC5621; S. No.: 01273;
@@ -207,16 +229,17 @@
 (9.5 ± 0.1) J (k=2.16)
 (19.3 ± 0.1) J (k=2.00)
 (48.2 ± 0.2) J (k=2.13)
-(97.1± 0.3) J (k=2.00)
+(97.1 ± 0.3) J (k=2.00)
 (146.1 ± 0.5) J (k=2.06)
-(259.5± 0.8) J (k=2.05)</t>
+(259.5 ± 0.8) J (k=2.05)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +275,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -680,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +723,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -700,15 +731,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -716,7 +747,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -724,7 +755,7 @@
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -740,15 +771,15 @@
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="246.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>54</v>
@@ -756,51 +787,52 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -826,28 +858,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -864,10 +896,10 @@
         <v>9.6</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="H2" s="6">
         <v>2</v>
@@ -887,10 +919,10 @@
         <v>19.399999999999999</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H3" s="6">
         <v>2</v>
@@ -910,10 +942,10 @@
         <v>48.4</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H4" s="6">
         <v>2</v>
@@ -933,10 +965,10 @@
         <v>97.4</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
@@ -956,10 +988,10 @@
         <v>146.4</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6">
         <v>2</v>
@@ -979,10 +1011,10 @@
         <v>260.3</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="6">
         <v>2</v>
@@ -990,22 +1022,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1013,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="8">
         <v>6.6</v>
@@ -1022,7 +1054,7 @@
         <v>6.4</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="8">
         <v>2.17</v>
@@ -1033,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8">
         <v>4.4000000000000004</v>
@@ -1042,7 +1074,7 @@
         <v>4.5</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="8">
         <v>2</v>
@@ -1058,26 +1090,26 @@
     </row>
     <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Excel to PDF/excel_files/N23070405_D3.03_C-037.xlsx
+++ b/Excel to PDF/excel_files/N23070405_D3.03_C-037.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaisw\NPL\27-06 work\form\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaisw\NPL\01-07 work\form\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD51AB79-DF83-4D0F-8AE7-A414C82A3D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E67315-4BC7-48A2-91DD-B05D264BC776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>N23070405/D3.03/C-037</t>
   </si>
@@ -233,6 +233,24 @@
 (146.1 ± 0.5) J (k=2.06)
 (259.5 ± 0.8) J (k=2.05)</t>
     </r>
+  </si>
+  <si>
+    <t>Defribillator Analyser Load Resistance (Ω)</t>
+  </si>
+  <si>
+    <t>Expected Value (Ω)</t>
+  </si>
+  <si>
+    <t>Measured Value (Ω)</t>
+  </si>
+  <si>
+    <t>Uncertainty (Ω)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ± 0.00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ± 0.0005</t>
   </si>
 </sst>
 </file>
@@ -300,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -360,12 +378,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -405,6 +464,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -711,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -838,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8B4F5B-D780-4ABE-8365-3A94C4C923A2}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,27 +1177,131 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>50</v>
+      </c>
+      <c r="D14" s="16">
+        <v>50</v>
+      </c>
+      <c r="E14" s="16">
+        <v>50.017899999999997</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
+        <v>50</v>
+      </c>
+      <c r="D18" s="18">
+        <v>50</v>
+      </c>
+      <c r="E18" s="22">
+        <v>51.012799999999999</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="23" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>52</v>
       </c>
     </row>
